--- a/dist/document/dest/2020/10/doctors/149.xlsx
+++ b/dist/document/dest/2020/10/doctors/149.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>5000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
-        <v>250500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>6000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>130</v>
       </c>
-      <c r="C5" s="1">
-        <v>55900</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
-        <v>108600</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>135</v>
       </c>
-      <c r="C7" s="1">
-        <v>2389500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>240</v>
       </c>
-      <c r="C8" s="1">
-        <v>866400</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
-        <v>9000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>25</v>
       </c>
-      <c r="C10" s="1">
-        <v>67750</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>60</v>
       </c>
-      <c r="C11" s="1">
-        <v>255000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>465</v>
       </c>
-      <c r="C12" s="1">
-        <v>1901850</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>60</v>
       </c>
-      <c r="C13" s="1">
-        <v>325200</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>40</v>
       </c>
-      <c r="C14" s="1">
-        <v>101200</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>85</v>
       </c>
-      <c r="C15" s="1">
-        <v>2473500</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>150</v>
       </c>
-      <c r="C16" s="1">
-        <v>253500</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>60</v>
       </c>
-      <c r="C17" s="1">
-        <v>716400</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>60</v>
       </c>
-      <c r="C18" s="1">
-        <v>331200</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>11</v>
       </c>
-      <c r="C19" s="1">
-        <v>1647800</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
-        <v>123600</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>60</v>
       </c>
-      <c r="C21" s="1">
-        <v>276000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
-        <v>49400</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="1">
-        <v>804000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>100</v>
       </c>
-      <c r="C24" s="1">
-        <v>880000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>15</v>
       </c>
-      <c r="C25" s="1">
-        <v>12285</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>245</v>
       </c>
-      <c r="C26" s="1">
-        <v>629650</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>90</v>
       </c>
-      <c r="C27" s="1">
-        <v>144900</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -691,7 +613,7 @@
         <v>2176</v>
       </c>
       <c r="C28" s="1">
-        <v>14684135</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/149.xlsx
+++ b/dist/document/dest/2020/10/doctors/149.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,226 +399,293 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">Alcool </v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="C2" s="1">
+        <v>690000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Amlor 5mg Pfizer (Amlodipine)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B3" s="1">
         <v>30</v>
       </c>
+      <c r="C3" s="1">
+        <v>231000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve">Bông Gòn </v>
+        <v>Calci D</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C4" s="1">
+        <v>38700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Calci D</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B5" s="1">
-        <v>130</v>
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>270750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Concor 2.5mg (Bisoprolol )</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
       </c>
+      <c r="C6" s="1">
+        <v>462000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Crestor (Rosuvastatin 10mg)</v>
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
       </c>
       <c r="B7" s="1">
-        <v>135</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>240</v>
+        <v>120</v>
+      </c>
+      <c r="C8" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Doaspin 81mg (Acetylsalicylic)</v>
+        <v>Glucophage 1000mg (Metformin)</v>
       </c>
       <c r="B9" s="1">
-        <v>30</v>
+        <v>210</v>
+      </c>
+      <c r="C9" s="1">
+        <v>892500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve">Enervon C </v>
+        <v>Glucophage 500mg (Metformin)</v>
       </c>
       <c r="B10" s="1">
-        <v>25</v>
+        <v>180</v>
+      </c>
+      <c r="C10" s="1">
+        <v>330300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Glucophage 1000mg (Metformin)</v>
+        <v>Glucophage 850mg (Metformin)</v>
       </c>
       <c r="B11" s="1">
-        <v>60</v>
+        <v>144</v>
+      </c>
+      <c r="C11" s="1">
+        <v>588960</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Glucophage 850mg (Metformin)</v>
+        <v>Ketovital</v>
       </c>
       <c r="B12" s="1">
-        <v>465</v>
+        <v>120</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1716000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Glucovance 500/5 (Mefformin-glibenclamide)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B13" s="1">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>33800</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B14" s="1">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>69300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Jardiance (Empagliflozin 25mg)</v>
+        <v>Lipanthyl Supra (Fenofibrate) 160mg</v>
       </c>
       <c r="B15" s="1">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>358200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
       </c>
       <c r="B16" s="1">
-        <v>150</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>599200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Lipanthyl Supra (Fenofibrate) 160mg</v>
+        <v>Normodipine (Amlodipine 5mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
       </c>
       <c r="B18" s="1">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>24700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Mixtard 30 Flexpen 100IU/ml</v>
+        <v>Novorapid Flexpen 100U/ml</v>
       </c>
       <c r="B19" s="1">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>270000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Natrilix (Indapamide 1.5mg)</v>
+        <v xml:space="preserve">Prednisone </v>
       </c>
       <c r="B20" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="1">
+        <v>27300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Refresh Tear 15ML (Natri carboxymethylcellulose 0.5%)</v>
       </c>
       <c r="B21" s="1">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>70500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>528000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve">Novomix Flexpen </v>
+        <v>Telod (Telmisartan 40mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="C23" s="1">
+        <v>910800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Telod (Telmisartan 40mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>227700</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Stadnolol (Atenolol 50mg)</v>
+        <v>Thyrozol 10mg (Thiamazole)</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <v>231300</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Thyrozol 10mg (Thiamazole)</v>
+        <v>Thyrozol 5mg (Thiamazole)</v>
       </c>
       <c r="B26" s="1">
-        <v>245</v>
+        <v>120</v>
+      </c>
+      <c r="C26" s="1">
+        <v>193200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B27" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2176</v>
-      </c>
-      <c r="C28" s="1">
-        <v>NaN</v>
+        <v>1815</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9764710</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C27"/>
   </ignoredErrors>
 </worksheet>
 </file>